--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.47436736389538</v>
+        <v>124.9758283503578</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.0545326408452</v>
+        <v>170.9974418933053</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.5012579467383</v>
+        <v>154.6776860354728</v>
       </c>
       <c r="AD2" t="n">
-        <v>88474.36736389538</v>
+        <v>124975.8283503578</v>
       </c>
       <c r="AE2" t="n">
-        <v>121054.5326408452</v>
+        <v>170997.4418933053</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.160673652560859e-06</v>
+        <v>5.848073767206109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>109501.2579467383</v>
+        <v>154677.6860354728</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.57499721167449</v>
+        <v>104.88094709301</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.2462659029665</v>
+        <v>143.5027388334224</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.72451701682162</v>
+        <v>129.8070388465583</v>
       </c>
       <c r="AD3" t="n">
-        <v>80574.99721167449</v>
+        <v>104880.9470930099</v>
       </c>
       <c r="AE3" t="n">
-        <v>110246.2659029665</v>
+        <v>143502.7388334224</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.773388248083512e-06</v>
+        <v>6.981756186445163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.029947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99724.51701682163</v>
+        <v>129807.0388465583</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.52710440477426</v>
+        <v>89.91830563213028</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.65707509839865</v>
+        <v>123.0301926815038</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.10032968552436</v>
+        <v>111.2883637659732</v>
       </c>
       <c r="AD4" t="n">
-        <v>65527.10440477426</v>
+        <v>89918.30563213029</v>
       </c>
       <c r="AE4" t="n">
-        <v>89657.07509839865</v>
+        <v>123030.1926815038</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.989997446043522e-06</v>
+        <v>7.382539914084723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.80859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>81100.32968552435</v>
+        <v>111288.3637659732</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.271733161931</v>
+        <v>89.662934389287</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.30766489775657</v>
+        <v>122.6807824808617</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.78426670403114</v>
+        <v>110.97230078448</v>
       </c>
       <c r="AD5" t="n">
-        <v>65271.733161931</v>
+        <v>89662.93438928701</v>
       </c>
       <c r="AE5" t="n">
-        <v>89307.66489775656</v>
+        <v>122680.7824808617</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.990184178110728e-06</v>
+        <v>7.382885417298204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.80859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>80784.26670403114</v>
+        <v>110972.30078448</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.01483497713447</v>
+        <v>103.457007896548</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.4798272210556</v>
+        <v>141.5544424050605</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.03122616700857</v>
+        <v>128.0446850948674</v>
       </c>
       <c r="AD2" t="n">
-        <v>80014.83497713447</v>
+        <v>103457.007896548</v>
       </c>
       <c r="AE2" t="n">
-        <v>109479.8272210556</v>
+        <v>141554.4424050605</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.637737221968432e-06</v>
+        <v>6.93408856578287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99031.22616700857</v>
+        <v>128044.6850948674</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.44916647889394</v>
+        <v>85.97659074432809</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.44570463917351</v>
+        <v>117.6369644758277</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.29088651223076</v>
+        <v>106.4098576908018</v>
       </c>
       <c r="AD3" t="n">
-        <v>62449.16647889394</v>
+        <v>85976.59074432809</v>
       </c>
       <c r="AE3" t="n">
-        <v>85445.70463917352</v>
+        <v>117636.9644758277</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.199577143382286e-06</v>
+        <v>8.005042166100393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.743489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>77290.88651223076</v>
+        <v>106409.8576908018</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.63580095451254</v>
+        <v>85.16322521994667</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.33282204556102</v>
+        <v>116.5240818822151</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.28421587141176</v>
+        <v>105.4031870499828</v>
       </c>
       <c r="AD4" t="n">
-        <v>61635.80095451254</v>
+        <v>85163.22521994667</v>
       </c>
       <c r="AE4" t="n">
-        <v>84332.82204556101</v>
+        <v>116524.0818822151</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.27834290853838e-06</v>
+        <v>8.155181870597374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>76284.21587141175</v>
+        <v>105403.1870499828</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.92463089982972</v>
+        <v>73.8515158822112</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.41381486705036</v>
+        <v>101.0469021289375</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.50274200958273</v>
+        <v>91.40312760999485</v>
       </c>
       <c r="AD2" t="n">
-        <v>52924.63089982972</v>
+        <v>73851.5158822112</v>
       </c>
       <c r="AE2" t="n">
-        <v>72413.81486705036</v>
+        <v>101046.9021289375</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.866937062520211e-06</v>
+        <v>1.036530225145789e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>65502.74200958273</v>
+        <v>91403.12760999486</v>
       </c>
     </row>
   </sheetData>
@@ -3373,28 +3373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.88216281447758</v>
+        <v>78.82575490687796</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.82868462665469</v>
+        <v>107.8528754104211</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.40082419914958</v>
+        <v>97.5595483537393</v>
       </c>
       <c r="AD2" t="n">
-        <v>56882.16281447758</v>
+        <v>78825.75490687796</v>
       </c>
       <c r="AE2" t="n">
-        <v>77828.68462665469</v>
+        <v>107852.8754104211</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.566909427086342e-06</v>
+        <v>9.272405062172865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>70400.82419914959</v>
+        <v>97559.5483537393</v>
       </c>
     </row>
     <row r="3">
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.21210941995091</v>
+        <v>78.1557015123513</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.91188801159427</v>
+        <v>106.9360787953607</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.57152536629813</v>
+        <v>96.73024952088782</v>
       </c>
       <c r="AD3" t="n">
-        <v>56212.1094199509</v>
+        <v>78155.7015123513</v>
       </c>
       <c r="AE3" t="n">
-        <v>76911.88801159427</v>
+        <v>106936.0787953607</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.660503566913577e-06</v>
+        <v>9.462433524479692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.600260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>69571.52536629813</v>
+        <v>96730.24952088782</v>
       </c>
     </row>
   </sheetData>
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.51853077581216</v>
+        <v>70.61150736979886</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.12168252772538</v>
+        <v>96.61377954316976</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.52480616018511</v>
+        <v>87.39309602188472</v>
       </c>
       <c r="AD2" t="n">
-        <v>50518.53077581216</v>
+        <v>70611.50736979886</v>
       </c>
       <c r="AE2" t="n">
-        <v>69121.68252772538</v>
+        <v>96613.77954316976</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959187833781588e-06</v>
+        <v>1.104314265722332e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>62524.80616018511</v>
+        <v>87393.09602188472</v>
       </c>
     </row>
   </sheetData>
@@ -4073,28 +4073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.26479212662406</v>
+        <v>105.9340014357868</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.5583178540896</v>
+        <v>144.9435742426879</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.8159099747156</v>
+        <v>131.1103629465891</v>
       </c>
       <c r="AD2" t="n">
-        <v>82264.79212662406</v>
+        <v>105934.0014357868</v>
       </c>
       <c r="AE2" t="n">
-        <v>112558.3178540896</v>
+        <v>144943.5742426879</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.491394289383684e-06</v>
+        <v>6.601401475203886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.459635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101815.9099747156</v>
+        <v>131110.3629465891</v>
       </c>
     </row>
     <row r="3">
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.03547481740516</v>
+        <v>87.78993547258852</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.61616169090824</v>
+        <v>120.1180627321557</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.2541981892042</v>
+        <v>108.65416341179</v>
       </c>
       <c r="AD3" t="n">
-        <v>64035.47481740516</v>
+        <v>87789.93547258852</v>
       </c>
       <c r="AE3" t="n">
-        <v>87616.16169090824</v>
+        <v>120118.0627321557</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.077548810664625e-06</v>
+        <v>7.709681148240898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.821614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79254.19818920421</v>
+        <v>108654.16341179</v>
       </c>
     </row>
     <row r="4">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.6179128271577</v>
+        <v>86.37237348234105</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.67659083743135</v>
+        <v>118.1784918786788</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.49973725577776</v>
+        <v>106.8997024783635</v>
       </c>
       <c r="AD4" t="n">
-        <v>62617.9128271577</v>
+        <v>86372.37348234105</v>
       </c>
       <c r="AE4" t="n">
-        <v>85676.59083743134</v>
+        <v>118178.4918786788</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.192243181781163e-06</v>
+        <v>7.926541098143588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.717447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>77499.73725577776</v>
+        <v>106899.7024783635</v>
       </c>
     </row>
   </sheetData>
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.1536088748822</v>
+        <v>68.75278684447947</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.25413616676951</v>
+        <v>94.07059611946679</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.83549580280052</v>
+        <v>85.09263045475882</v>
       </c>
       <c r="AD2" t="n">
-        <v>49153.60887488219</v>
+        <v>68752.78684447947</v>
       </c>
       <c r="AE2" t="n">
-        <v>67254.13616676952</v>
+        <v>94070.59611946679</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.954634533040195e-06</v>
+        <v>1.135883037985373e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.763020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>60835.49580280051</v>
+        <v>85092.63045475882</v>
       </c>
     </row>
   </sheetData>
@@ -4879,28 +4879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.11319244047772</v>
+        <v>96.81852242777083</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.4049395403126</v>
+        <v>132.4713737173749</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.72699443333707</v>
+        <v>119.8284917345646</v>
       </c>
       <c r="AD2" t="n">
-        <v>74113.19244047772</v>
+        <v>96818.52242777083</v>
       </c>
       <c r="AE2" t="n">
-        <v>101404.9395403126</v>
+        <v>132471.3737173749</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.041983917540465e-06</v>
+        <v>7.922232618427609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91726.99443333707</v>
+        <v>119828.4917345646</v>
       </c>
     </row>
     <row r="3">
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.87651899431043</v>
+        <v>81.66710032762411</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.55745073668562</v>
+        <v>111.7405295663971</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.86916070148733</v>
+        <v>101.0761702534271</v>
       </c>
       <c r="AD3" t="n">
-        <v>58876.51899431043</v>
+        <v>81667.10032762411</v>
       </c>
       <c r="AE3" t="n">
-        <v>80557.45073668563</v>
+        <v>111740.5295663971</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485738870068127e-06</v>
+        <v>8.79198619271759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>72869.16070148733</v>
+        <v>101076.1702534271</v>
       </c>
     </row>
   </sheetData>
@@ -5282,28 +5282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.21203859856983</v>
+        <v>101.4185417845581</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.0131616821417</v>
+        <v>138.7653231398594</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.799975725141</v>
+        <v>125.5217554577827</v>
       </c>
       <c r="AD2" t="n">
-        <v>78212.03859856984</v>
+        <v>101418.5417845581</v>
       </c>
       <c r="AE2" t="n">
-        <v>107013.1616821417</v>
+        <v>138765.3231398594</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.749317511504094e-06</v>
+        <v>7.208824331907964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.231770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>96799.97572514099</v>
+        <v>125521.7554577827</v>
       </c>
     </row>
     <row r="3">
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.22605740087838</v>
+        <v>84.51781193288721</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.77219283886923</v>
+        <v>115.6409989492362</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.77709232935842</v>
+        <v>104.6043843127124</v>
       </c>
       <c r="AD3" t="n">
-        <v>61226.05740087838</v>
+        <v>84517.81193288721</v>
       </c>
       <c r="AE3" t="n">
-        <v>83772.19283886923</v>
+        <v>115640.9989492362</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.291508804882323e-06</v>
+        <v>8.251297202306622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>75777.09232935842</v>
+        <v>104604.3843127124</v>
       </c>
     </row>
     <row r="4">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.86587434724743</v>
+        <v>84.15762887925625</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.27937449473676</v>
+        <v>115.1481806051037</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.33130787631491</v>
+        <v>104.1585998596689</v>
       </c>
       <c r="AD4" t="n">
-        <v>60865.87434724743</v>
+        <v>84157.62887925626</v>
       </c>
       <c r="AE4" t="n">
-        <v>83279.37449473675</v>
+        <v>115148.1806051037</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.329851964729643e-06</v>
+        <v>8.325019713889461e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.665364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>75331.30787631491</v>
+        <v>104158.5998596689</v>
       </c>
     </row>
   </sheetData>
@@ -5791,28 +5791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.45712551257226</v>
+        <v>122.6503509761088</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.2944533454368</v>
+        <v>167.8156211570384</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.0045967454871</v>
+        <v>151.7995338045607</v>
       </c>
       <c r="AD2" t="n">
-        <v>86457.12551257227</v>
+        <v>122650.3509761088</v>
       </c>
       <c r="AE2" t="n">
-        <v>118294.4533454368</v>
+        <v>167815.6211570384</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.257489147035732e-06</v>
+        <v>6.068455212023778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.700520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>107004.5967454871</v>
+        <v>151799.5338045607</v>
       </c>
     </row>
     <row r="3">
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.74893734659608</v>
+        <v>90.93464822533483</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.32884083286349</v>
+        <v>124.4207974553963</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.61254444463034</v>
+        <v>112.5462511719719</v>
       </c>
       <c r="AD3" t="n">
-        <v>66748.93734659608</v>
+        <v>90934.64822533482</v>
       </c>
       <c r="AE3" t="n">
-        <v>91328.8408328635</v>
+        <v>124420.7974553963</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.881289695643964e-06</v>
+        <v>7.230548321039866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.9453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>82612.54444463034</v>
+        <v>112546.2511719719</v>
       </c>
     </row>
     <row r="4">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.40641628279569</v>
+        <v>88.59212716153445</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.12370016863778</v>
+        <v>121.2156567911706</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.71329790695415</v>
+        <v>109.6470046342957</v>
       </c>
       <c r="AD4" t="n">
-        <v>64406.41628279569</v>
+        <v>88592.12716153444</v>
       </c>
       <c r="AE4" t="n">
-        <v>88123.70016863778</v>
+        <v>121215.6567911706</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068643965947865e-06</v>
+        <v>7.579575116464566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.763020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>79713.29790695415</v>
+        <v>109647.0046342957</v>
       </c>
     </row>
     <row r="5">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.42009161511707</v>
+        <v>88.60580249385582</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.14241136163297</v>
+        <v>121.2343679841658</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.7302233299512</v>
+        <v>109.6639300572928</v>
       </c>
       <c r="AD5" t="n">
-        <v>64420.09161511707</v>
+        <v>88605.80249385582</v>
       </c>
       <c r="AE5" t="n">
-        <v>88142.41136163297</v>
+        <v>121234.3679841658</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.069232168479273e-06</v>
+        <v>7.580670893167521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.763020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>79730.2233299512</v>
+        <v>109663.9300572928</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.85216102250334</v>
+        <v>81.09312800072112</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.52412308506131</v>
+        <v>110.9551953068569</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.83901379415836</v>
+        <v>100.3657871933936</v>
       </c>
       <c r="AD2" t="n">
-        <v>58852.16102250334</v>
+        <v>81093.12800072112</v>
       </c>
       <c r="AE2" t="n">
-        <v>80524.12308506131</v>
+        <v>110955.1953068569</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.38334911560948e-06</v>
+        <v>8.786411708124568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.782552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72839.01379415837</v>
+        <v>100365.7871933936</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.05447693787425</v>
+        <v>79.29544391609203</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.0644524122485</v>
+        <v>108.4955246340441</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.61409063818856</v>
+        <v>98.14086403742378</v>
       </c>
       <c r="AD3" t="n">
-        <v>57054.47693787425</v>
+        <v>79295.44391609203</v>
       </c>
       <c r="AE3" t="n">
-        <v>78064.4524122485</v>
+        <v>108495.5246340441</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.617931396626954e-06</v>
+        <v>9.256631269945599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>70614.09063818856</v>
+        <v>98140.86403742379</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.92732877391127</v>
+        <v>75.21782678765508</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.78575033427624</v>
+        <v>102.9163489871479</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.74374188134053</v>
+        <v>93.09415708384337</v>
       </c>
       <c r="AD2" t="n">
-        <v>53927.32877391127</v>
+        <v>75217.82678765508</v>
       </c>
       <c r="AE2" t="n">
-        <v>73785.75033427625</v>
+        <v>102916.3489871479</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.838167365466014e-06</v>
+        <v>1.012174869746373e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66743.74188134052</v>
+        <v>93094.15708384337</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.02999464913371</v>
+        <v>75.3204926628775</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.92622231405426</v>
+        <v>103.0568209669259</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.87080741252224</v>
+        <v>93.22122261502507</v>
       </c>
       <c r="AD3" t="n">
-        <v>54029.9946491337</v>
+        <v>75320.4926628775</v>
       </c>
       <c r="AE3" t="n">
-        <v>73926.22231405426</v>
+        <v>103056.8209669259</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.834959119581848e-06</v>
+        <v>1.011503684643704e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>66870.80741252223</v>
+        <v>93221.22261502506</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.72927100441697</v>
+        <v>72.26004141020468</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.77827072259076</v>
+        <v>98.86937654544082</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.0232919027692</v>
+        <v>89.43342201201004</v>
       </c>
       <c r="AD2" t="n">
-        <v>51729.27100441697</v>
+        <v>72260.04141020468</v>
       </c>
       <c r="AE2" t="n">
-        <v>70778.27072259077</v>
+        <v>98869.37654544081</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.937772605846809e-06</v>
+        <v>1.073400546946105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>64023.2919027692</v>
+        <v>89433.42201201004</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.69407855345898</v>
+        <v>66.71883323553988</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.2571423910659</v>
+        <v>91.28765106001677</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.02909231025105</v>
+        <v>82.5752857658939</v>
       </c>
       <c r="AD2" t="n">
-        <v>47694.07855345898</v>
+        <v>66718.83323553987</v>
       </c>
       <c r="AE2" t="n">
-        <v>65257.14239106589</v>
+        <v>91287.65106001677</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857627934470295e-06</v>
+        <v>1.155399902090046e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.9453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>59029.09231025105</v>
+        <v>82575.28576589389</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.15903685919939</v>
+        <v>99.12029811548567</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.204154130292</v>
+        <v>135.6207647604812</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.25905591157206</v>
+        <v>122.677309316716</v>
       </c>
       <c r="AD2" t="n">
-        <v>76159.03685919939</v>
+        <v>99120.29811548567</v>
       </c>
       <c r="AE2" t="n">
-        <v>104204.154130292</v>
+        <v>135620.7647604812</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899723799120291e-06</v>
+        <v>7.567718971050042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.108072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94259.05591157207</v>
+        <v>122677.309316716</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.96096707495583</v>
+        <v>83.00747967726269</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.0412404430967</v>
+        <v>113.5744957259352</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.21133960083094</v>
+        <v>102.7351052566871</v>
       </c>
       <c r="AD3" t="n">
-        <v>59960.96707495584</v>
+        <v>83007.47967726269</v>
       </c>
       <c r="AE3" t="n">
-        <v>82041.2404430967</v>
+        <v>113574.4957259352</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.386912308487543e-06</v>
+        <v>8.513146369177019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.65234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>74211.33960083094</v>
+        <v>102735.1052566871</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.03603413479551</v>
+        <v>83.08254673710236</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.14395050609423</v>
+        <v>113.6772057889327</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.30424715957048</v>
+        <v>102.8280128154266</v>
       </c>
       <c r="AD4" t="n">
-        <v>60036.0341347955</v>
+        <v>83082.54673710236</v>
       </c>
       <c r="AE4" t="n">
-        <v>82143.95050609423</v>
+        <v>113677.2057889327</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.3797727527891e-06</v>
+        <v>8.499291503066713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.658854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>74304.24715957048</v>
+        <v>102828.0128154266</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.07533642608234</v>
+        <v>108.1343386889026</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.0355844401844</v>
+        <v>147.9541727444279</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0567497146997</v>
+        <v>133.8336341527256</v>
       </c>
       <c r="AD2" t="n">
-        <v>84075.33642608234</v>
+        <v>108134.3386889026</v>
       </c>
       <c r="AE2" t="n">
-        <v>115035.5844401843</v>
+        <v>147954.1727444279</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391531248554655e-06</v>
+        <v>6.363842880027132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>104056.7497146997</v>
+        <v>133833.6341527256</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.57719008525814</v>
+        <v>89.55085149350676</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.72560453606091</v>
+        <v>122.5274257181068</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.16231876983782</v>
+        <v>110.8335801759249</v>
       </c>
       <c r="AD3" t="n">
-        <v>65577.19008525813</v>
+        <v>89550.85149350675</v>
       </c>
       <c r="AE3" t="n">
-        <v>89725.60453606091</v>
+        <v>122527.4257181068</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.953049957569409e-06</v>
+        <v>7.4174722221977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>81162.31876983783</v>
+        <v>110833.5801759249</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.31394580528531</v>
+        <v>87.28760721353392</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.6289338649129</v>
+        <v>119.4307550469588</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.3611900013386</v>
+        <v>108.0324514074257</v>
       </c>
       <c r="AD4" t="n">
-        <v>63313.94580528532</v>
+        <v>87287.60721353392</v>
       </c>
       <c r="AE4" t="n">
-        <v>86628.93386491289</v>
+        <v>119430.7550469588</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.150550623104404e-06</v>
+        <v>7.788060936278141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>78361.1900013386</v>
+        <v>108032.4514074257</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.33438592534536</v>
+        <v>73.5695205057913</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.71094800384788</v>
+        <v>100.6610636141621</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.48520138736075</v>
+        <v>91.05411298154169</v>
       </c>
       <c r="AD2" t="n">
-        <v>55334.38592534536</v>
+        <v>73569.5205057913</v>
       </c>
       <c r="AE2" t="n">
-        <v>75710.94800384788</v>
+        <v>100661.0636141621</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.50238121719166e-06</v>
+        <v>1.126011374059439e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.407552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68485.20138736075</v>
+        <v>91054.11298154169</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.24775971941625</v>
+        <v>76.8756536681018</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.59242220721725</v>
+        <v>105.1846608631341</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.37798752640853</v>
+        <v>95.14598445798188</v>
       </c>
       <c r="AD2" t="n">
-        <v>55247.75971941625</v>
+        <v>76875.6536681018</v>
       </c>
       <c r="AE2" t="n">
-        <v>75592.42220721726</v>
+        <v>105184.6608631341</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72832451068276e-06</v>
+        <v>9.736960449468407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.600260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68377.98752640853</v>
+        <v>95145.98445798189</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.06587775673096</v>
+        <v>76.69377170541651</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.34356328180549</v>
+        <v>104.9358019377223</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.15287934756228</v>
+        <v>94.92087627913563</v>
       </c>
       <c r="AD3" t="n">
-        <v>55065.87775673096</v>
+        <v>76693.77170541651</v>
       </c>
       <c r="AE3" t="n">
-        <v>75343.56328180549</v>
+        <v>104935.8019377223</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.763283720019733e-06</v>
+        <v>9.808951370964962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>68152.87934756228</v>
+        <v>94920.87627913563</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.72052756254094</v>
+        <v>83.24314222008775</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.08050461165386</v>
+        <v>113.8969396137259</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.15141785575774</v>
+        <v>103.02677555238</v>
       </c>
       <c r="AD2" t="n">
-        <v>60720.52756254094</v>
+        <v>83243.14222008774</v>
       </c>
       <c r="AE2" t="n">
-        <v>83080.50461165386</v>
+        <v>113896.9396137259</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.213089109418275e-06</v>
+        <v>8.346905205104747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>75151.41785575774</v>
+        <v>103026.77555238</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.9054535574123</v>
+        <v>80.4280682149591</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.22879616553872</v>
+        <v>110.0452311676108</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.66731105783185</v>
+        <v>99.54266875445413</v>
       </c>
       <c r="AD3" t="n">
-        <v>57905.4535574123</v>
+        <v>80428.0682149591</v>
       </c>
       <c r="AE3" t="n">
-        <v>79228.79616553872</v>
+        <v>110045.2311676108</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.553520172749384e-06</v>
+        <v>9.021361818933674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>71667.31105783186</v>
+        <v>99542.66875445412</v>
       </c>
     </row>
   </sheetData>
